--- a/calendar/阳历节日.xlsx
+++ b/calendar/阳历节日.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="固定" sheetId="1" r:id="rId1"/>
     <sheet name="不固定" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="农历" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>元旦</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,94 @@
   </si>
   <si>
     <t>圣诞节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊八节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊月初八</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除夕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宵节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙抬头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七夕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中元节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中秋节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊月廿三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊月廿九</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正月初一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正月十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二月初二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五月初五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月初七</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七月十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八月十五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九月初九</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -643,12 +731,118 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
